--- a/terceira_sprint/Documentos/homologação.xlsx
+++ b/terceira_sprint/Documentos/homologação.xlsx
@@ -1,42 +1,40 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="7" rupBuild="14420"/>
-  <workbookPr/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20730"/>
+  <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\aluno\Desktop\CodeSix\terceira_sprint\Documentos\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\joaof\Desktop\BIGODE\terceira_sprint\Documentos\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C9D29EFE-8AD1-4C3E-A0C1-35C5751F6D76}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7695"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7695" firstSheet="1" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Plano de Homologação" sheetId="1" r:id="rId1"/>
-    <sheet name="Login" sheetId="3" r:id="rId2"/>
-    <sheet name="Regressão Básica" sheetId="4" r:id="rId3"/>
+    <sheet name="Cenário 1 - Login" sheetId="5" r:id="rId2"/>
+    <sheet name="Cenário 2 - Cadastro" sheetId="6" r:id="rId3"/>
+    <sheet name="Cenário 3 - DashBoard" sheetId="7" r:id="rId4"/>
+    <sheet name="Regressão Básica" sheetId="4" r:id="rId5"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-      </xcalcf:calcFeatures>
-    </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
   <authors>
     <author>move0011</author>
   </authors>
   <commentList>
-    <comment ref="H18" authorId="0" shapeId="0">
+    <comment ref="H18" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000001000000}">
       <text>
         <r>
           <rPr>
@@ -57,7 +55,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="92" uniqueCount="73">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="239" uniqueCount="123">
   <si>
     <t>Plano de Homologação - Teste de Aceitação</t>
   </si>
@@ -277,13 +275,167 @@
   </si>
   <si>
     <t>Status:</t>
+  </si>
+  <si>
+    <t>Sensolutions</t>
+  </si>
+  <si>
+    <t>Codigo da Demanda</t>
+  </si>
+  <si>
+    <t>A-416</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Analista: </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Data : </t>
+  </si>
+  <si>
+    <t>Versão:</t>
+  </si>
+  <si>
+    <t>00.00.001</t>
+  </si>
+  <si>
+    <t>Objetos</t>
+  </si>
+  <si>
+    <t>Local Git</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Caso de Teste: </t>
+  </si>
+  <si>
+    <t>Testar o login do usuário</t>
+  </si>
+  <si>
+    <t>Pré-Requisitos:</t>
+  </si>
+  <si>
+    <t>Logar no sistema</t>
+  </si>
+  <si>
+    <t>Id do TC</t>
+  </si>
+  <si>
+    <t>Condição/Iteração com sistema</t>
+  </si>
+  <si>
+    <t>Massa de Teste</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Esperado / Valor esperado</t>
+  </si>
+  <si>
+    <t>Print Screen da Tela Esperada</t>
+  </si>
+  <si>
+    <t>Status – Desenvolvimento</t>
+  </si>
+  <si>
+    <t>Status – Qualidade</t>
+  </si>
+  <si>
+    <t>PrintScreen Evidência</t>
+  </si>
+  <si>
+    <t>RF002-01-TC01</t>
+  </si>
+  <si>
+    <t>Permitir sair do campo Login sem mensagem de Erro</t>
+  </si>
+  <si>
+    <t>OK</t>
+  </si>
+  <si>
+    <t>N/A</t>
+  </si>
+  <si>
+    <t>RF002-01-TC02</t>
+  </si>
+  <si>
+    <t>RF002-01-TC03</t>
+  </si>
+  <si>
+    <t>Tester:</t>
+  </si>
+  <si>
+    <t>Data de homologação:</t>
+  </si>
+  <si>
+    <t>usuario.js</t>
+  </si>
+  <si>
+    <t>João Vinícius Analista Desenvolvedor</t>
+  </si>
+  <si>
+    <t>Possuir cadastro</t>
+  </si>
+  <si>
+    <t>usuário =  Igor</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Permitir o login no sistema utilizando usuario e senha	</t>
+  </si>
+  <si>
+    <t>usuário =  null/em branco</t>
+  </si>
+  <si>
+    <t>Permitir o cadastro de um usuario utilizando campos validos</t>
+  </si>
+  <si>
+    <t>Abrir o site https://codesix.azurewebsites.net/, selecionar a opção LOGIN; digitar usuário no  campo Usuario; ir para campo Senha</t>
+  </si>
+  <si>
+    <t>Abrir o site https://codesix.azurewebsites.net/, selecionar a opção LOGIN; digitar o usuário no  campo Usuario; ir para campo Senha</t>
+  </si>
+  <si>
+    <t>Abrir o site https://codesix.azurewebsites.net/, selecionar a opção LOGIN em seguida CADASTRO; preencher todos os campos</t>
+  </si>
+  <si>
+    <t>nome completo = jose da silva
+email=jose@gmail.com
+telefone=43987632
+usuario=jose
+Senha = jose123</t>
+  </si>
+  <si>
+    <t>Mensagem "cadastrado com sucesso"</t>
+  </si>
+  <si>
+    <t>Exibir a mensagem de erro "Preencha todos os campos"; voltar para campo Usuario</t>
+  </si>
+  <si>
+    <t>Exibir a mensagem de erro "Usuário ou senha incorretos"; voltar para campo Usuario</t>
+  </si>
+  <si>
+    <t>PENDENTE</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Permitir o visualizar os  graficos </t>
+  </si>
+  <si>
+    <t>Atualizacao dos graficos em tempo real</t>
+  </si>
+  <si>
+    <t>Visualisar o Analytcs</t>
+  </si>
+  <si>
+    <t>Buscar Usuarios Cadastrados</t>
+  </si>
+  <si>
+    <t>Pendente</t>
+  </si>
+  <si>
+    <t>Abrir o dashboard , https://codesix.azurewebsites.net/charts.html</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="19" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="30" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -405,8 +557,77 @@
       <name val="Tahoma"/>
       <family val="2"/>
     </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color indexed="8"/>
+      <name val="Verdana"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color indexed="8"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <name val="Verdana"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="10"/>
+      <color indexed="12"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="12"/>
+      <color indexed="12"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="12"/>
+      <color indexed="8"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color theme="0"/>
+      <name val="Verdana"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <name val="Verdana"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color indexed="8"/>
+      <name val="Verdana"/>
+      <family val="2"/>
+    </font>
   </fonts>
-  <fills count="10">
+  <fills count="14">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -458,6 +679,30 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor indexed="22"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="9"/>
+        <bgColor indexed="26"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="26"/>
+        <bgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="-0.249977111117893"/>
+        <bgColor indexed="26"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="-0.249977111117893"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -718,11 +963,18 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="2">
+  <cellStyleXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="3" fillId="10" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="top"/>
+      <protection locked="0"/>
+    </xf>
   </cellStyleXfs>
-  <cellXfs count="81">
+  <cellXfs count="110">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
@@ -846,104 +1098,6 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="6" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="6" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="14" fontId="5" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="8" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="19" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="9" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
@@ -973,24 +1127,229 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="12" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="5" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="6" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="6" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="8" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="19" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="9" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
+      <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="17" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="10" borderId="0" xfId="2" applyFont="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="10" borderId="0" xfId="2" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="21" fillId="10" borderId="0" xfId="2" applyFont="1" applyProtection="1">
+      <alignment vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="14" fontId="20" fillId="10" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="10" borderId="0" xfId="2" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="10" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="23" fillId="10" borderId="0" xfId="3" applyFill="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="10" borderId="0" xfId="3" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="11" borderId="0" xfId="2" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="11" borderId="0" xfId="2" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="11" borderId="0" xfId="2" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="10" borderId="0" xfId="2" applyFont="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="2" applyFont="1" applyFill="1" applyProtection="1">
+      <alignment vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="7" borderId="17" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="8" borderId="17" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="10" borderId="0" xfId="2" applyFont="1" applyProtection="1">
+      <alignment vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="10" borderId="0" xfId="2" applyFont="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="10" borderId="17" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="10" borderId="17" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="10" borderId="17" xfId="2" applyFont="1" applyBorder="1" applyProtection="1">
+      <alignment vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="10" borderId="17" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="10" borderId="17" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="10" borderId="17" xfId="2" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="10" borderId="17" xfId="3" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="10" borderId="0" xfId="2" applyFont="1" applyAlignment="1" applyProtection="1">
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="10" borderId="0" xfId="2" applyFont="1" applyProtection="1">
+      <alignment vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="14" fontId="21" fillId="10" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="12" borderId="17" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="13" borderId="17" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
     </xf>
   </cellXfs>
-  <cellStyles count="2">
+  <cellStyles count="4">
+    <cellStyle name="Hiperlink 2" xfId="3" xr:uid="{0575241F-4F93-41BE-A674-59A9A95A603F}"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="Normal 2" xfId="1"/>
+    <cellStyle name="Normal 2" xfId="1" xr:uid="{00000000-0005-0000-0000-000001000000}"/>
+    <cellStyle name="Normal 3" xfId="2" xr:uid="{35581B6B-9311-435C-B38D-39E92DC41B19}"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -1003,6 +1362,291 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>85152</xdr:colOff>
+      <xdr:row>24</xdr:row>
+      <xdr:rowOff>149678</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>2884716</xdr:colOff>
+      <xdr:row>24</xdr:row>
+      <xdr:rowOff>1723664</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="6" name="Imagem 5">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B253C21A-1B6D-42EE-86AA-025E3E0A7DE4}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="11460723" y="5116285"/>
+          <a:ext cx="2799564" cy="1573986"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>81644</xdr:colOff>
+      <xdr:row>25</xdr:row>
+      <xdr:rowOff>365002</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>2898322</xdr:colOff>
+      <xdr:row>25</xdr:row>
+      <xdr:rowOff>1948611</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="7" name="Imagem 6">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E8602D53-8EF1-4671-9C06-D0A32B6D83C9}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="11457215" y="7236609"/>
+          <a:ext cx="2816678" cy="1583609"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>68462</xdr:colOff>
+      <xdr:row>26</xdr:row>
+      <xdr:rowOff>204107</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>2996941</xdr:colOff>
+      <xdr:row>26</xdr:row>
+      <xdr:rowOff>1850572</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="8" name="Imagem 7">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5BD78019-703C-4353-B740-1E8406E32D56}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="11444033" y="9266464"/>
+          <a:ext cx="2928479" cy="1646465"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>108857</xdr:colOff>
+      <xdr:row>24</xdr:row>
+      <xdr:rowOff>136071</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>2939143</xdr:colOff>
+      <xdr:row>24</xdr:row>
+      <xdr:rowOff>1727329</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="6" name="Imagem 5">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5A5CBE4E-A9DC-456D-9BCF-C3EC5E3DEEE5}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1" cstate="print">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="12559393" y="4898571"/>
+          <a:ext cx="2830286" cy="1591258"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>127568</xdr:colOff>
+      <xdr:row>24</xdr:row>
+      <xdr:rowOff>81642</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>2983438</xdr:colOff>
+      <xdr:row>24</xdr:row>
+      <xdr:rowOff>1687285</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="4" name="Imagem 3">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{62ABAC10-58C3-4471-8EB4-299B4ED39D9E}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="9570925" y="4844142"/>
+          <a:ext cx="2855870" cy="1605643"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>176893</xdr:colOff>
+      <xdr:row>25</xdr:row>
+      <xdr:rowOff>365976</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>2999770</xdr:colOff>
+      <xdr:row>25</xdr:row>
+      <xdr:rowOff>1953069</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="5" name="Imagem 4">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{53F14365-476A-4048-8D07-98165B47979B}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="9620250" y="7033476"/>
+          <a:ext cx="2822877" cy="1587093"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1301,10 +1945,10 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:I24"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A11" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+    <sheetView topLeftCell="A11" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
       <selection activeCell="L19" sqref="L19"/>
     </sheetView>
   </sheetViews>
@@ -1321,13 +1965,13 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="58" t="s">
+      <c r="A1" s="48" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="58"/>
-      <c r="C1" s="58"/>
-      <c r="D1" s="58"/>
-      <c r="E1" s="58"/>
+      <c r="B1" s="48"/>
+      <c r="C1" s="48"/>
+      <c r="D1" s="48"/>
+      <c r="E1" s="48"/>
       <c r="F1" s="1"/>
       <c r="G1" s="1"/>
       <c r="H1" s="1"/>
@@ -1359,10 +2003,10 @@
       <c r="A4" s="18" t="s">
         <v>1</v>
       </c>
-      <c r="B4" s="59" t="s">
+      <c r="B4" s="49" t="s">
         <v>34</v>
       </c>
-      <c r="C4" s="52"/>
+      <c r="C4" s="50"/>
       <c r="D4" s="6"/>
       <c r="E4" s="7"/>
       <c r="F4" s="6"/>
@@ -1374,8 +2018,8 @@
       <c r="A5" s="18" t="s">
         <v>2</v>
       </c>
-      <c r="B5" s="59"/>
-      <c r="C5" s="52"/>
+      <c r="B5" s="49"/>
+      <c r="C5" s="50"/>
       <c r="D5" s="6"/>
       <c r="E5" s="7"/>
       <c r="F5" s="6"/>
@@ -1387,10 +2031,10 @@
       <c r="A6" s="18" t="s">
         <v>3</v>
       </c>
-      <c r="B6" s="59" t="s">
+      <c r="B6" s="49" t="s">
         <v>4</v>
       </c>
-      <c r="C6" s="52"/>
+      <c r="C6" s="50"/>
       <c r="D6" s="6"/>
       <c r="E6" s="7"/>
       <c r="F6" s="6"/>
@@ -1402,10 +2046,10 @@
       <c r="A7" s="18" t="s">
         <v>5</v>
       </c>
-      <c r="B7" s="59" t="s">
+      <c r="B7" s="49" t="s">
         <v>37</v>
       </c>
-      <c r="C7" s="52"/>
+      <c r="C7" s="50"/>
       <c r="D7" s="6"/>
       <c r="E7" s="7"/>
       <c r="F7" s="6"/>
@@ -1420,7 +2064,7 @@
       <c r="B8" s="51">
         <v>43620</v>
       </c>
-      <c r="C8" s="52"/>
+      <c r="C8" s="50"/>
       <c r="D8" s="6"/>
       <c r="E8" s="7"/>
       <c r="F8" s="6"/>
@@ -1440,30 +2084,30 @@
       <c r="I9" s="6"/>
     </row>
     <row r="10" spans="1:9" ht="27" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="53" t="s">
+      <c r="A10" s="52" t="s">
         <v>7</v>
       </c>
-      <c r="B10" s="54"/>
-      <c r="C10" s="54"/>
-      <c r="D10" s="54"/>
-      <c r="E10" s="54"/>
-      <c r="F10" s="54"/>
-      <c r="G10" s="54"/>
-      <c r="H10" s="55"/>
+      <c r="B10" s="53"/>
+      <c r="C10" s="53"/>
+      <c r="D10" s="53"/>
+      <c r="E10" s="53"/>
+      <c r="F10" s="53"/>
+      <c r="G10" s="53"/>
+      <c r="H10" s="54"/>
       <c r="I10" s="6"/>
     </row>
     <row r="11" spans="1:9" ht="45.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="19" t="s">
         <v>8</v>
       </c>
-      <c r="B11" s="56" t="s">
+      <c r="B11" s="55" t="s">
         <v>9</v>
       </c>
-      <c r="C11" s="57"/>
-      <c r="D11" s="56" t="s">
+      <c r="C11" s="56"/>
+      <c r="D11" s="55" t="s">
         <v>10</v>
       </c>
-      <c r="E11" s="57"/>
+      <c r="E11" s="56"/>
       <c r="F11" s="20" t="s">
         <v>11</v>
       </c>
@@ -1479,14 +2123,14 @@
       <c r="A12" s="9" t="s">
         <v>14</v>
       </c>
-      <c r="B12" s="38" t="s">
+      <c r="B12" s="57" t="s">
         <v>15</v>
       </c>
-      <c r="C12" s="50"/>
-      <c r="D12" s="38" t="s">
+      <c r="C12" s="58"/>
+      <c r="D12" s="57" t="s">
         <v>16</v>
       </c>
-      <c r="E12" s="50"/>
+      <c r="E12" s="58"/>
       <c r="F12" s="10" t="s">
         <v>36</v>
       </c>
@@ -1502,14 +2146,14 @@
       <c r="A13" s="23" t="s">
         <v>17</v>
       </c>
-      <c r="B13" s="48" t="s">
+      <c r="B13" s="64" t="s">
         <v>18</v>
       </c>
-      <c r="C13" s="49"/>
-      <c r="D13" s="48" t="s">
+      <c r="C13" s="65"/>
+      <c r="D13" s="64" t="s">
         <v>38</v>
       </c>
-      <c r="E13" s="49"/>
+      <c r="E13" s="65"/>
       <c r="F13" s="10" t="s">
         <v>36</v>
       </c>
@@ -1525,14 +2169,14 @@
       <c r="A14" s="9" t="s">
         <v>19</v>
       </c>
-      <c r="B14" s="38" t="s">
+      <c r="B14" s="57" t="s">
         <v>20</v>
       </c>
-      <c r="C14" s="50"/>
-      <c r="D14" s="38" t="s">
+      <c r="C14" s="58"/>
+      <c r="D14" s="57" t="s">
         <v>40</v>
       </c>
-      <c r="E14" s="50"/>
+      <c r="E14" s="58"/>
       <c r="F14" s="10" t="s">
         <v>36</v>
       </c>
@@ -1567,34 +2211,34 @@
       <c r="I16" s="8"/>
     </row>
     <row r="17" spans="1:9" ht="33" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="43" t="s">
+      <c r="A17" s="59" t="s">
         <v>21</v>
       </c>
-      <c r="B17" s="44"/>
-      <c r="C17" s="44"/>
-      <c r="D17" s="44"/>
-      <c r="E17" s="44"/>
-      <c r="F17" s="44"/>
-      <c r="G17" s="44"/>
-      <c r="H17" s="44"/>
-      <c r="I17" s="45"/>
+      <c r="B17" s="60"/>
+      <c r="C17" s="60"/>
+      <c r="D17" s="60"/>
+      <c r="E17" s="60"/>
+      <c r="F17" s="60"/>
+      <c r="G17" s="60"/>
+      <c r="H17" s="60"/>
+      <c r="I17" s="61"/>
     </row>
     <row r="18" spans="1:9" ht="36.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" s="26" t="s">
         <v>22</v>
       </c>
-      <c r="B18" s="46" t="s">
+      <c r="B18" s="62" t="s">
         <v>23</v>
       </c>
-      <c r="C18" s="47"/>
-      <c r="D18" s="46" t="s">
+      <c r="C18" s="63"/>
+      <c r="D18" s="62" t="s">
         <v>24</v>
       </c>
-      <c r="E18" s="47"/>
-      <c r="F18" s="46" t="s">
+      <c r="E18" s="63"/>
+      <c r="F18" s="62" t="s">
         <v>25</v>
       </c>
-      <c r="G18" s="47"/>
+      <c r="G18" s="63"/>
       <c r="H18" s="27" t="s">
         <v>26</v>
       </c>
@@ -1606,18 +2250,18 @@
       <c r="A19" s="9" t="s">
         <v>27</v>
       </c>
-      <c r="B19" s="36" t="s">
+      <c r="B19" s="66" t="s">
         <v>41</v>
       </c>
-      <c r="C19" s="42"/>
-      <c r="D19" s="36" t="s">
+      <c r="C19" s="71"/>
+      <c r="D19" s="66" t="s">
         <v>44</v>
       </c>
-      <c r="E19" s="42"/>
-      <c r="F19" s="36" t="s">
+      <c r="E19" s="71"/>
+      <c r="F19" s="66" t="s">
         <v>49</v>
       </c>
-      <c r="G19" s="42"/>
+      <c r="G19" s="71"/>
       <c r="H19" s="13" t="s">
         <v>28</v>
       </c>
@@ -1629,18 +2273,18 @@
       <c r="A20" s="9" t="s">
         <v>30</v>
       </c>
-      <c r="B20" s="36" t="s">
+      <c r="B20" s="66" t="s">
         <v>42</v>
       </c>
-      <c r="C20" s="37"/>
-      <c r="D20" s="38" t="s">
+      <c r="C20" s="67"/>
+      <c r="D20" s="57" t="s">
         <v>45</v>
       </c>
-      <c r="E20" s="39"/>
-      <c r="F20" s="40" t="s">
+      <c r="E20" s="68"/>
+      <c r="F20" s="69" t="s">
         <v>46</v>
       </c>
-      <c r="G20" s="41"/>
+      <c r="G20" s="70"/>
       <c r="H20" s="15" t="s">
         <v>28</v>
       </c>
@@ -1652,18 +2296,18 @@
       <c r="A21" s="9" t="s">
         <v>30</v>
       </c>
-      <c r="B21" s="36" t="s">
+      <c r="B21" s="66" t="s">
         <v>43</v>
       </c>
-      <c r="C21" s="37"/>
-      <c r="D21" s="38" t="s">
+      <c r="C21" s="67"/>
+      <c r="D21" s="57" t="s">
         <v>31</v>
       </c>
-      <c r="E21" s="39"/>
-      <c r="F21" s="40" t="s">
+      <c r="E21" s="68"/>
+      <c r="F21" s="69" t="s">
         <v>47</v>
       </c>
-      <c r="G21" s="41"/>
+      <c r="G21" s="70"/>
       <c r="H21" s="15" t="s">
         <v>28</v>
       </c>
@@ -1714,25 +2358,6 @@
     </row>
   </sheetData>
   <mergeCells count="28">
-    <mergeCell ref="A1:E1"/>
-    <mergeCell ref="B4:C4"/>
-    <mergeCell ref="B5:C5"/>
-    <mergeCell ref="B6:C6"/>
-    <mergeCell ref="B7:C7"/>
-    <mergeCell ref="B8:C8"/>
-    <mergeCell ref="A10:H10"/>
-    <mergeCell ref="B11:C11"/>
-    <mergeCell ref="D11:E11"/>
-    <mergeCell ref="B12:C12"/>
-    <mergeCell ref="D12:E12"/>
-    <mergeCell ref="A17:I17"/>
-    <mergeCell ref="B18:C18"/>
-    <mergeCell ref="D18:E18"/>
-    <mergeCell ref="F18:G18"/>
-    <mergeCell ref="B13:C13"/>
-    <mergeCell ref="D13:E13"/>
-    <mergeCell ref="B14:C14"/>
-    <mergeCell ref="D14:E14"/>
     <mergeCell ref="B21:C21"/>
     <mergeCell ref="D21:E21"/>
     <mergeCell ref="F21:G21"/>
@@ -1742,15 +2367,34 @@
     <mergeCell ref="B20:C20"/>
     <mergeCell ref="D20:E20"/>
     <mergeCell ref="F20:G20"/>
+    <mergeCell ref="A17:I17"/>
+    <mergeCell ref="B18:C18"/>
+    <mergeCell ref="D18:E18"/>
+    <mergeCell ref="F18:G18"/>
+    <mergeCell ref="B13:C13"/>
+    <mergeCell ref="D13:E13"/>
+    <mergeCell ref="B14:C14"/>
+    <mergeCell ref="D14:E14"/>
+    <mergeCell ref="B8:C8"/>
+    <mergeCell ref="A10:H10"/>
+    <mergeCell ref="B11:C11"/>
+    <mergeCell ref="D11:E11"/>
+    <mergeCell ref="B12:C12"/>
+    <mergeCell ref="D12:E12"/>
+    <mergeCell ref="A1:E1"/>
+    <mergeCell ref="B4:C4"/>
+    <mergeCell ref="B5:C5"/>
+    <mergeCell ref="B6:C6"/>
+    <mergeCell ref="B7:C7"/>
   </mergeCells>
   <dataValidations count="3">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="H19:H21">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="H19:H21" xr:uid="{00000000-0002-0000-0000-000000000000}">
       <formula1>"Essencial, Importante, Desejável"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="I19:I21">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="I19:I21" xr:uid="{00000000-0002-0000-0000-000001000000}">
       <formula1>"Não testado,Testado- NÃO OK,Testado - OK"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="H12:H15">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="H12:H15" xr:uid="{00000000-0002-0000-0000-000002000000}">
       <formula1>"Não Iniciado, Em andamento, Concluído, Pendente"</formula1>
     </dataValidation>
   </dataValidations>
@@ -1760,22 +2404,1105 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D3E1547D-BA1F-4325-A2C2-1001F1DD3A00}">
+  <dimension ref="A1:T41"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="A21" sqref="A18:A21"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData/>
-  <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
+  <sheetFormatPr defaultColWidth="11.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="21.7109375" style="83" customWidth="1"/>
+    <col min="2" max="2" width="35.7109375" style="83" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="50.85546875" style="83" customWidth="1"/>
+    <col min="4" max="4" width="29" style="83" customWidth="1"/>
+    <col min="5" max="5" width="33.42578125" style="83" customWidth="1"/>
+    <col min="6" max="6" width="45.42578125" style="92" customWidth="1"/>
+    <col min="7" max="7" width="25.5703125" style="83" customWidth="1"/>
+    <col min="8" max="9" width="20.85546875" style="83" customWidth="1"/>
+    <col min="10" max="10" width="21.42578125" style="83" customWidth="1"/>
+    <col min="11" max="11" width="20.5703125" style="83" customWidth="1"/>
+    <col min="12" max="12" width="14.5703125" style="83" customWidth="1"/>
+    <col min="13" max="13" width="20.5703125" style="83" customWidth="1"/>
+    <col min="14" max="14" width="15.42578125" style="83" customWidth="1"/>
+    <col min="15" max="15" width="32.28515625" style="93" customWidth="1"/>
+    <col min="16" max="16" width="16.42578125" style="83" customWidth="1"/>
+    <col min="17" max="16384" width="11.7109375" style="83"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A1" s="81" t="s">
+        <v>1</v>
+      </c>
+      <c r="B1" s="82" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A2" s="81" t="s">
+        <v>74</v>
+      </c>
+      <c r="B2" s="82" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A3" s="81" t="s">
+        <v>76</v>
+      </c>
+      <c r="B3" s="82" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A4" s="81" t="s">
+        <v>77</v>
+      </c>
+      <c r="B4" s="84">
+        <v>43614</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A5" s="81" t="s">
+        <v>78</v>
+      </c>
+      <c r="B5" s="85" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A6" s="81"/>
+      <c r="B6" s="85"/>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A7" s="81"/>
+      <c r="B7" s="85"/>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A9" s="86" t="s">
+        <v>80</v>
+      </c>
+      <c r="B9" s="86" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A10" s="85" t="s">
+        <v>102</v>
+      </c>
+      <c r="B10" s="87"/>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A11" s="85"/>
+      <c r="B11" s="87"/>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A12" s="85"/>
+      <c r="B12" s="88"/>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A13" s="85"/>
+      <c r="B13" s="88"/>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A15" s="89" t="s">
+        <v>82</v>
+      </c>
+      <c r="B15" s="90" t="s">
+        <v>83</v>
+      </c>
+      <c r="C15" s="90"/>
+      <c r="D15" s="91"/>
+    </row>
+    <row r="17" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A17" s="86" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="18" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A18" s="83" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="20" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A20" s="83" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="24" spans="1:20" s="96" customFormat="1" ht="45.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A24" s="108" t="s">
+        <v>86</v>
+      </c>
+      <c r="B24" s="108" t="s">
+        <v>50</v>
+      </c>
+      <c r="C24" s="108" t="s">
+        <v>87</v>
+      </c>
+      <c r="D24" s="108" t="s">
+        <v>88</v>
+      </c>
+      <c r="E24" s="109" t="s">
+        <v>89</v>
+      </c>
+      <c r="F24" s="109" t="s">
+        <v>90</v>
+      </c>
+      <c r="G24" s="109" t="s">
+        <v>91</v>
+      </c>
+      <c r="H24" s="109" t="s">
+        <v>92</v>
+      </c>
+      <c r="I24" s="109" t="s">
+        <v>93</v>
+      </c>
+      <c r="Q24" s="97"/>
+      <c r="R24" s="97"/>
+      <c r="S24" s="97"/>
+      <c r="T24" s="97"/>
+    </row>
+    <row r="25" spans="1:20" s="96" customFormat="1" ht="150" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A25" s="98" t="s">
+        <v>94</v>
+      </c>
+      <c r="B25" s="98" t="s">
+        <v>106</v>
+      </c>
+      <c r="C25" s="99" t="s">
+        <v>109</v>
+      </c>
+      <c r="D25" s="99" t="s">
+        <v>105</v>
+      </c>
+      <c r="E25" s="99" t="s">
+        <v>95</v>
+      </c>
+      <c r="F25" s="100"/>
+      <c r="G25" s="101" t="s">
+        <v>96</v>
+      </c>
+      <c r="H25" s="101" t="s">
+        <v>96</v>
+      </c>
+      <c r="I25" s="102" t="s">
+        <v>97</v>
+      </c>
+      <c r="Q25" s="97"/>
+      <c r="R25" s="97"/>
+      <c r="S25" s="97"/>
+      <c r="T25" s="97"/>
+    </row>
+    <row r="26" spans="1:20" s="96" customFormat="1" ht="172.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A26" s="98" t="s">
+        <v>98</v>
+      </c>
+      <c r="B26" s="98" t="s">
+        <v>106</v>
+      </c>
+      <c r="C26" s="99" t="s">
+        <v>110</v>
+      </c>
+      <c r="D26" s="99" t="s">
+        <v>105</v>
+      </c>
+      <c r="E26" s="99" t="s">
+        <v>115</v>
+      </c>
+      <c r="F26" s="100"/>
+      <c r="G26" s="101" t="s">
+        <v>96</v>
+      </c>
+      <c r="H26" s="101" t="s">
+        <v>96</v>
+      </c>
+      <c r="I26" s="102" t="s">
+        <v>97</v>
+      </c>
+      <c r="Q26" s="97"/>
+      <c r="R26" s="97"/>
+      <c r="S26" s="97"/>
+      <c r="T26" s="97"/>
+    </row>
+    <row r="27" spans="1:20" s="96" customFormat="1" ht="155.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A27" s="98" t="s">
+        <v>99</v>
+      </c>
+      <c r="B27" s="98" t="s">
+        <v>106</v>
+      </c>
+      <c r="C27" s="99" t="s">
+        <v>110</v>
+      </c>
+      <c r="D27" s="99" t="s">
+        <v>107</v>
+      </c>
+      <c r="E27" s="99" t="s">
+        <v>114</v>
+      </c>
+      <c r="F27" s="100"/>
+      <c r="G27" s="101" t="s">
+        <v>96</v>
+      </c>
+      <c r="H27" s="101" t="s">
+        <v>96</v>
+      </c>
+      <c r="I27" s="102" t="s">
+        <v>97</v>
+      </c>
+      <c r="Q27" s="97"/>
+      <c r="R27" s="97"/>
+      <c r="S27" s="97"/>
+      <c r="T27" s="97"/>
+    </row>
+    <row r="28" spans="1:20" s="96" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A28" s="98"/>
+      <c r="B28" s="98"/>
+      <c r="C28" s="99"/>
+      <c r="D28" s="99"/>
+      <c r="E28" s="99"/>
+      <c r="F28" s="100"/>
+      <c r="G28" s="101"/>
+      <c r="H28" s="101"/>
+      <c r="I28" s="102"/>
+      <c r="Q28" s="97"/>
+      <c r="R28" s="97"/>
+      <c r="S28" s="97"/>
+      <c r="T28" s="97"/>
+    </row>
+    <row r="29" spans="1:20" s="96" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A29" s="98"/>
+      <c r="B29" s="98"/>
+      <c r="C29" s="99"/>
+      <c r="D29" s="99"/>
+      <c r="E29" s="99"/>
+      <c r="F29" s="100"/>
+      <c r="G29" s="101"/>
+      <c r="H29" s="101"/>
+      <c r="I29" s="102"/>
+      <c r="Q29" s="97"/>
+      <c r="R29" s="97"/>
+      <c r="S29" s="97"/>
+      <c r="T29" s="97"/>
+    </row>
+    <row r="30" spans="1:20" s="96" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A30" s="98"/>
+      <c r="B30" s="98"/>
+      <c r="C30" s="99"/>
+      <c r="D30" s="99"/>
+      <c r="E30" s="99"/>
+      <c r="F30" s="100"/>
+      <c r="G30" s="101"/>
+      <c r="H30" s="101"/>
+      <c r="I30" s="102"/>
+      <c r="Q30" s="97"/>
+      <c r="R30" s="97"/>
+      <c r="S30" s="97"/>
+      <c r="T30" s="97"/>
+    </row>
+    <row r="31" spans="1:20" s="96" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A31" s="98"/>
+      <c r="B31" s="98"/>
+      <c r="C31" s="99"/>
+      <c r="D31" s="99"/>
+      <c r="E31" s="99"/>
+      <c r="F31" s="100"/>
+      <c r="G31" s="101"/>
+      <c r="H31" s="101"/>
+      <c r="I31" s="102"/>
+      <c r="Q31" s="97"/>
+      <c r="R31" s="97"/>
+      <c r="S31" s="97"/>
+      <c r="T31" s="97"/>
+    </row>
+    <row r="32" spans="1:20" s="96" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A32" s="98"/>
+      <c r="B32" s="98"/>
+      <c r="C32" s="99"/>
+      <c r="D32" s="99"/>
+      <c r="E32" s="99"/>
+      <c r="F32" s="100"/>
+      <c r="G32" s="101"/>
+      <c r="H32" s="101"/>
+      <c r="I32" s="102"/>
+      <c r="Q32" s="97"/>
+      <c r="R32" s="97"/>
+      <c r="S32" s="97"/>
+      <c r="T32" s="97"/>
+    </row>
+    <row r="33" spans="1:20" s="96" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A33" s="98"/>
+      <c r="B33" s="98"/>
+      <c r="C33" s="99"/>
+      <c r="D33" s="99"/>
+      <c r="E33" s="99"/>
+      <c r="F33" s="103"/>
+      <c r="G33" s="101"/>
+      <c r="H33" s="101"/>
+      <c r="I33" s="104"/>
+      <c r="Q33" s="97"/>
+      <c r="R33" s="97"/>
+      <c r="S33" s="97"/>
+      <c r="T33" s="97"/>
+    </row>
+    <row r="34" spans="1:20" s="96" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="Q34" s="97"/>
+      <c r="R34" s="97"/>
+      <c r="S34" s="97"/>
+      <c r="T34" s="97"/>
+    </row>
+    <row r="36" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="A36" s="105" t="s">
+        <v>100</v>
+      </c>
+      <c r="B36" s="83" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="37" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A37" s="106" t="s">
+        <v>101</v>
+      </c>
+      <c r="B37" s="107">
+        <v>43614</v>
+      </c>
+    </row>
+    <row r="41" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A41" s="86"/>
+    </row>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="B15:C15"/>
+  </mergeCells>
+  <printOptions horizontalCentered="1"/>
+  <pageMargins left="0.78749999999999998" right="0.78749999999999998" top="0.78749999999999998" bottom="0.78749999999999998" header="0" footer="9.8611111111111122E-2"/>
+  <pageSetup fitToHeight="0" orientation="portrait" useFirstPageNumber="1" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
+  <headerFooter alignWithMargins="0">
+    <oddFooter>&amp;CSeite &amp;P</oddFooter>
+  </headerFooter>
+  <drawing r:id="rId2"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{99EA974E-D004-45CD-8985-3C38ED35A0E4}">
+  <dimension ref="A1:T40"/>
+  <sheetViews>
+    <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="A21" sqref="A18:A21"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="11.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="21.7109375" style="83" customWidth="1"/>
+    <col min="2" max="2" width="35.7109375" style="83" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="50.85546875" style="83" customWidth="1"/>
+    <col min="4" max="4" width="45" style="83" customWidth="1"/>
+    <col min="5" max="5" width="33.42578125" style="83" customWidth="1"/>
+    <col min="6" max="6" width="45.42578125" style="92" customWidth="1"/>
+    <col min="7" max="7" width="25.5703125" style="83" customWidth="1"/>
+    <col min="8" max="9" width="20.85546875" style="83" customWidth="1"/>
+    <col min="10" max="10" width="21.42578125" style="83" customWidth="1"/>
+    <col min="11" max="11" width="20.5703125" style="83" customWidth="1"/>
+    <col min="12" max="12" width="14.5703125" style="83" customWidth="1"/>
+    <col min="13" max="13" width="20.5703125" style="83" customWidth="1"/>
+    <col min="14" max="14" width="15.42578125" style="83" customWidth="1"/>
+    <col min="15" max="15" width="32.28515625" style="93" customWidth="1"/>
+    <col min="16" max="16" width="16.42578125" style="83" customWidth="1"/>
+    <col min="17" max="16384" width="11.7109375" style="83"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A1" s="81" t="s">
+        <v>1</v>
+      </c>
+      <c r="B1" s="82" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A2" s="81" t="s">
+        <v>74</v>
+      </c>
+      <c r="B2" s="82" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A3" s="81" t="s">
+        <v>76</v>
+      </c>
+      <c r="B3" s="82" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A4" s="81" t="s">
+        <v>77</v>
+      </c>
+      <c r="B4" s="84">
+        <v>43614</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A5" s="81" t="s">
+        <v>78</v>
+      </c>
+      <c r="B5" s="85" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A6" s="81"/>
+      <c r="B6" s="85"/>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A7" s="81"/>
+      <c r="B7" s="85"/>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A9" s="86" t="s">
+        <v>80</v>
+      </c>
+      <c r="B9" s="86" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A10" s="85" t="s">
+        <v>102</v>
+      </c>
+      <c r="B10" s="87"/>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A11" s="85"/>
+      <c r="B11" s="87"/>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A12" s="85"/>
+      <c r="B12" s="88"/>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A13" s="85"/>
+      <c r="B13" s="88"/>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A15" s="89" t="s">
+        <v>82</v>
+      </c>
+      <c r="B15" s="90" t="s">
+        <v>83</v>
+      </c>
+      <c r="C15" s="90"/>
+      <c r="D15" s="91"/>
+    </row>
+    <row r="17" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A17" s="86" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="18" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A18" s="83" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="20" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A20" s="83" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="24" spans="1:20" s="96" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+      <c r="A24" s="94" t="s">
+        <v>86</v>
+      </c>
+      <c r="B24" s="94" t="s">
+        <v>50</v>
+      </c>
+      <c r="C24" s="94" t="s">
+        <v>87</v>
+      </c>
+      <c r="D24" s="94" t="s">
+        <v>88</v>
+      </c>
+      <c r="E24" s="95" t="s">
+        <v>89</v>
+      </c>
+      <c r="F24" s="95" t="s">
+        <v>90</v>
+      </c>
+      <c r="G24" s="95" t="s">
+        <v>91</v>
+      </c>
+      <c r="H24" s="95" t="s">
+        <v>92</v>
+      </c>
+      <c r="I24" s="95" t="s">
+        <v>93</v>
+      </c>
+      <c r="Q24" s="97"/>
+      <c r="R24" s="97"/>
+      <c r="S24" s="97"/>
+      <c r="T24" s="97"/>
+    </row>
+    <row r="25" spans="1:20" s="96" customFormat="1" ht="150" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A25" s="98" t="s">
+        <v>94</v>
+      </c>
+      <c r="B25" s="98" t="s">
+        <v>108</v>
+      </c>
+      <c r="C25" s="99" t="s">
+        <v>111</v>
+      </c>
+      <c r="D25" s="99" t="s">
+        <v>112</v>
+      </c>
+      <c r="E25" s="99" t="s">
+        <v>113</v>
+      </c>
+      <c r="F25" s="100"/>
+      <c r="G25" s="101" t="s">
+        <v>96</v>
+      </c>
+      <c r="H25" s="101" t="s">
+        <v>96</v>
+      </c>
+      <c r="I25" s="102" t="s">
+        <v>96</v>
+      </c>
+      <c r="Q25" s="97"/>
+      <c r="R25" s="97"/>
+      <c r="S25" s="97"/>
+      <c r="T25" s="97"/>
+    </row>
+    <row r="26" spans="1:20" s="96" customFormat="1" ht="155.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A26" s="98" t="s">
+        <v>98</v>
+      </c>
+      <c r="B26" s="98" t="s">
+        <v>108</v>
+      </c>
+      <c r="C26" s="99" t="s">
+        <v>111</v>
+      </c>
+      <c r="D26" s="99" t="s">
+        <v>107</v>
+      </c>
+      <c r="E26" s="99" t="s">
+        <v>114</v>
+      </c>
+      <c r="F26" s="100"/>
+      <c r="G26" s="101" t="s">
+        <v>116</v>
+      </c>
+      <c r="H26" s="101" t="s">
+        <v>96</v>
+      </c>
+      <c r="I26" s="102" t="s">
+        <v>96</v>
+      </c>
+      <c r="Q26" s="97"/>
+      <c r="R26" s="97"/>
+      <c r="S26" s="97"/>
+      <c r="T26" s="97"/>
+    </row>
+    <row r="27" spans="1:20" s="96" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A27" s="98"/>
+      <c r="B27" s="98"/>
+      <c r="C27" s="99"/>
+      <c r="D27" s="99"/>
+      <c r="E27" s="99"/>
+      <c r="F27" s="100"/>
+      <c r="G27" s="101"/>
+      <c r="H27" s="101"/>
+      <c r="I27" s="102"/>
+      <c r="Q27" s="97"/>
+      <c r="R27" s="97"/>
+      <c r="S27" s="97"/>
+      <c r="T27" s="97"/>
+    </row>
+    <row r="28" spans="1:20" s="96" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A28" s="98"/>
+      <c r="B28" s="98"/>
+      <c r="C28" s="99"/>
+      <c r="D28" s="99"/>
+      <c r="E28" s="99"/>
+      <c r="F28" s="100"/>
+      <c r="G28" s="101"/>
+      <c r="H28" s="101"/>
+      <c r="I28" s="102"/>
+      <c r="Q28" s="97"/>
+      <c r="R28" s="97"/>
+      <c r="S28" s="97"/>
+      <c r="T28" s="97"/>
+    </row>
+    <row r="29" spans="1:20" s="96" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A29" s="98"/>
+      <c r="B29" s="98"/>
+      <c r="C29" s="99"/>
+      <c r="D29" s="99"/>
+      <c r="E29" s="99"/>
+      <c r="F29" s="100"/>
+      <c r="G29" s="101"/>
+      <c r="H29" s="101"/>
+      <c r="I29" s="102"/>
+      <c r="Q29" s="97"/>
+      <c r="R29" s="97"/>
+      <c r="S29" s="97"/>
+      <c r="T29" s="97"/>
+    </row>
+    <row r="30" spans="1:20" s="96" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A30" s="98"/>
+      <c r="B30" s="98"/>
+      <c r="C30" s="99"/>
+      <c r="D30" s="99"/>
+      <c r="E30" s="99"/>
+      <c r="F30" s="100"/>
+      <c r="G30" s="101"/>
+      <c r="H30" s="101"/>
+      <c r="I30" s="102"/>
+      <c r="Q30" s="97"/>
+      <c r="R30" s="97"/>
+      <c r="S30" s="97"/>
+      <c r="T30" s="97"/>
+    </row>
+    <row r="31" spans="1:20" s="96" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A31" s="98"/>
+      <c r="B31" s="98"/>
+      <c r="C31" s="99"/>
+      <c r="D31" s="99"/>
+      <c r="E31" s="99"/>
+      <c r="F31" s="100"/>
+      <c r="G31" s="101"/>
+      <c r="H31" s="101"/>
+      <c r="I31" s="102"/>
+      <c r="Q31" s="97"/>
+      <c r="R31" s="97"/>
+      <c r="S31" s="97"/>
+      <c r="T31" s="97"/>
+    </row>
+    <row r="32" spans="1:20" s="96" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A32" s="98"/>
+      <c r="B32" s="98"/>
+      <c r="C32" s="99"/>
+      <c r="D32" s="99"/>
+      <c r="E32" s="99"/>
+      <c r="F32" s="103"/>
+      <c r="G32" s="101"/>
+      <c r="H32" s="101"/>
+      <c r="I32" s="104"/>
+      <c r="Q32" s="97"/>
+      <c r="R32" s="97"/>
+      <c r="S32" s="97"/>
+      <c r="T32" s="97"/>
+    </row>
+    <row r="33" spans="1:20" s="96" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="Q33" s="97"/>
+      <c r="R33" s="97"/>
+      <c r="S33" s="97"/>
+      <c r="T33" s="97"/>
+    </row>
+    <row r="35" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="A35" s="105" t="s">
+        <v>100</v>
+      </c>
+      <c r="B35" s="83" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="36" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A36" s="106" t="s">
+        <v>101</v>
+      </c>
+      <c r="B36" s="107">
+        <v>43614</v>
+      </c>
+    </row>
+    <row r="40" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A40" s="86"/>
+    </row>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="B15:C15"/>
+  </mergeCells>
+  <printOptions horizontalCentered="1"/>
+  <pageMargins left="0.78749999999999998" right="0.78749999999999998" top="0.78749999999999998" bottom="0.78749999999999998" header="0" footer="9.8611111111111122E-2"/>
+  <pageSetup fitToHeight="0" orientation="portrait" useFirstPageNumber="1" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
+  <headerFooter alignWithMargins="0">
+    <oddFooter>&amp;CSeite &amp;P</oddFooter>
+  </headerFooter>
+  <drawing r:id="rId2"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1E57600B-2C99-4960-9193-9F5B7D4C2B33}">
+  <dimension ref="A1:S41"/>
+  <sheetViews>
+    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="A21" sqref="A18:A21"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="11.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="21.7109375" style="83" customWidth="1"/>
+    <col min="2" max="2" width="35.7109375" style="83" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="50.85546875" style="83" customWidth="1"/>
+    <col min="4" max="4" width="33.42578125" style="83" customWidth="1"/>
+    <col min="5" max="5" width="45.42578125" style="92" customWidth="1"/>
+    <col min="6" max="6" width="25.5703125" style="83" customWidth="1"/>
+    <col min="7" max="8" width="20.85546875" style="83" customWidth="1"/>
+    <col min="9" max="9" width="21.42578125" style="83" customWidth="1"/>
+    <col min="10" max="10" width="20.5703125" style="83" customWidth="1"/>
+    <col min="11" max="11" width="14.5703125" style="83" customWidth="1"/>
+    <col min="12" max="12" width="20.5703125" style="83" customWidth="1"/>
+    <col min="13" max="13" width="15.42578125" style="83" customWidth="1"/>
+    <col min="14" max="14" width="32.28515625" style="93" customWidth="1"/>
+    <col min="15" max="15" width="16.42578125" style="83" customWidth="1"/>
+    <col min="16" max="16384" width="11.7109375" style="83"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A1" s="81" t="s">
+        <v>1</v>
+      </c>
+      <c r="B1" s="82" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A2" s="81" t="s">
+        <v>74</v>
+      </c>
+      <c r="B2" s="82" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A3" s="81" t="s">
+        <v>76</v>
+      </c>
+      <c r="B3" s="82" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A4" s="81" t="s">
+        <v>77</v>
+      </c>
+      <c r="B4" s="84">
+        <v>43614</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A5" s="81" t="s">
+        <v>78</v>
+      </c>
+      <c r="B5" s="85" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A6" s="81"/>
+      <c r="B6" s="85"/>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A7" s="81"/>
+      <c r="B7" s="85"/>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A9" s="86" t="s">
+        <v>80</v>
+      </c>
+      <c r="B9" s="86" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A10" s="85" t="s">
+        <v>102</v>
+      </c>
+      <c r="B10" s="87"/>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A11" s="85"/>
+      <c r="B11" s="87"/>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A12" s="85"/>
+      <c r="B12" s="88"/>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A13" s="85"/>
+      <c r="B13" s="88"/>
+    </row>
+    <row r="15" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A15" s="89" t="s">
+        <v>82</v>
+      </c>
+      <c r="B15" s="90" t="s">
+        <v>83</v>
+      </c>
+      <c r="C15" s="90"/>
+    </row>
+    <row r="17" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A17" s="86" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="18" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A18" s="83" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="20" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A20" s="83" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="24" spans="1:19" s="96" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+      <c r="A24" s="94" t="s">
+        <v>86</v>
+      </c>
+      <c r="B24" s="94" t="s">
+        <v>50</v>
+      </c>
+      <c r="C24" s="94" t="s">
+        <v>87</v>
+      </c>
+      <c r="D24" s="95" t="s">
+        <v>89</v>
+      </c>
+      <c r="E24" s="95" t="s">
+        <v>90</v>
+      </c>
+      <c r="F24" s="95" t="s">
+        <v>91</v>
+      </c>
+      <c r="G24" s="95" t="s">
+        <v>92</v>
+      </c>
+      <c r="H24" s="95" t="s">
+        <v>93</v>
+      </c>
+      <c r="P24" s="97"/>
+      <c r="Q24" s="97"/>
+      <c r="R24" s="97"/>
+      <c r="S24" s="97"/>
+    </row>
+    <row r="25" spans="1:19" s="96" customFormat="1" ht="150" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A25" s="98" t="s">
+        <v>94</v>
+      </c>
+      <c r="B25" s="98" t="s">
+        <v>117</v>
+      </c>
+      <c r="C25" s="99" t="s">
+        <v>122</v>
+      </c>
+      <c r="D25" s="99" t="s">
+        <v>118</v>
+      </c>
+      <c r="E25" s="100"/>
+      <c r="F25" s="101" t="s">
+        <v>96</v>
+      </c>
+      <c r="G25" s="101" t="s">
+        <v>96</v>
+      </c>
+      <c r="H25" s="102" t="s">
+        <v>97</v>
+      </c>
+      <c r="P25" s="97"/>
+      <c r="Q25" s="97"/>
+      <c r="R25" s="97"/>
+      <c r="S25" s="97"/>
+    </row>
+    <row r="26" spans="1:19" s="96" customFormat="1" ht="172.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A26" s="98" t="s">
+        <v>98</v>
+      </c>
+      <c r="B26" s="98" t="s">
+        <v>117</v>
+      </c>
+      <c r="C26" s="99" t="s">
+        <v>122</v>
+      </c>
+      <c r="D26" s="99" t="s">
+        <v>119</v>
+      </c>
+      <c r="E26" s="100"/>
+      <c r="F26" s="101" t="s">
+        <v>96</v>
+      </c>
+      <c r="G26" s="101" t="s">
+        <v>96</v>
+      </c>
+      <c r="H26" s="102" t="s">
+        <v>97</v>
+      </c>
+      <c r="P26" s="97"/>
+      <c r="Q26" s="97"/>
+      <c r="R26" s="97"/>
+      <c r="S26" s="97"/>
+    </row>
+    <row r="27" spans="1:19" s="96" customFormat="1" ht="155.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A27" s="98" t="s">
+        <v>99</v>
+      </c>
+      <c r="B27" s="98" t="s">
+        <v>117</v>
+      </c>
+      <c r="C27" s="99" t="s">
+        <v>122</v>
+      </c>
+      <c r="D27" s="99" t="s">
+        <v>120</v>
+      </c>
+      <c r="E27" s="100"/>
+      <c r="F27" s="101" t="s">
+        <v>121</v>
+      </c>
+      <c r="G27" s="101" t="s">
+        <v>97</v>
+      </c>
+      <c r="H27" s="102" t="s">
+        <v>97</v>
+      </c>
+      <c r="P27" s="97"/>
+      <c r="Q27" s="97"/>
+      <c r="R27" s="97"/>
+      <c r="S27" s="97"/>
+    </row>
+    <row r="28" spans="1:19" s="96" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A28" s="98"/>
+      <c r="B28" s="98"/>
+      <c r="C28" s="99"/>
+      <c r="D28" s="99"/>
+      <c r="E28" s="100"/>
+      <c r="F28" s="101"/>
+      <c r="G28" s="101"/>
+      <c r="H28" s="102"/>
+      <c r="P28" s="97"/>
+      <c r="Q28" s="97"/>
+      <c r="R28" s="97"/>
+      <c r="S28" s="97"/>
+    </row>
+    <row r="29" spans="1:19" s="96" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A29" s="98"/>
+      <c r="B29" s="98"/>
+      <c r="C29" s="99"/>
+      <c r="D29" s="99"/>
+      <c r="E29" s="100"/>
+      <c r="F29" s="101"/>
+      <c r="G29" s="101"/>
+      <c r="H29" s="102"/>
+      <c r="P29" s="97"/>
+      <c r="Q29" s="97"/>
+      <c r="R29" s="97"/>
+      <c r="S29" s="97"/>
+    </row>
+    <row r="30" spans="1:19" s="96" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A30" s="98"/>
+      <c r="B30" s="98"/>
+      <c r="C30" s="99"/>
+      <c r="D30" s="99"/>
+      <c r="E30" s="100"/>
+      <c r="F30" s="101"/>
+      <c r="G30" s="101"/>
+      <c r="H30" s="102"/>
+      <c r="P30" s="97"/>
+      <c r="Q30" s="97"/>
+      <c r="R30" s="97"/>
+      <c r="S30" s="97"/>
+    </row>
+    <row r="31" spans="1:19" s="96" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A31" s="98"/>
+      <c r="B31" s="98"/>
+      <c r="C31" s="99"/>
+      <c r="D31" s="99"/>
+      <c r="E31" s="100"/>
+      <c r="F31" s="101"/>
+      <c r="G31" s="101"/>
+      <c r="H31" s="102"/>
+      <c r="P31" s="97"/>
+      <c r="Q31" s="97"/>
+      <c r="R31" s="97"/>
+      <c r="S31" s="97"/>
+    </row>
+    <row r="32" spans="1:19" s="96" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A32" s="98"/>
+      <c r="B32" s="98"/>
+      <c r="C32" s="99"/>
+      <c r="D32" s="99"/>
+      <c r="E32" s="100"/>
+      <c r="F32" s="101"/>
+      <c r="G32" s="101"/>
+      <c r="H32" s="102"/>
+      <c r="P32" s="97"/>
+      <c r="Q32" s="97"/>
+      <c r="R32" s="97"/>
+      <c r="S32" s="97"/>
+    </row>
+    <row r="33" spans="1:19" s="96" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A33" s="98"/>
+      <c r="B33" s="98"/>
+      <c r="C33" s="99"/>
+      <c r="D33" s="99"/>
+      <c r="E33" s="103"/>
+      <c r="F33" s="101"/>
+      <c r="G33" s="101"/>
+      <c r="H33" s="104"/>
+      <c r="P33" s="97"/>
+      <c r="Q33" s="97"/>
+      <c r="R33" s="97"/>
+      <c r="S33" s="97"/>
+    </row>
+    <row r="34" spans="1:19" s="96" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="P34" s="97"/>
+      <c r="Q34" s="97"/>
+      <c r="R34" s="97"/>
+      <c r="S34" s="97"/>
+    </row>
+    <row r="36" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A36" s="105" t="s">
+        <v>100</v>
+      </c>
+      <c r="B36" s="83" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="37" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A37" s="106" t="s">
+        <v>101</v>
+      </c>
+      <c r="B37" s="107">
+        <v>43614</v>
+      </c>
+    </row>
+    <row r="41" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A41" s="86"/>
+    </row>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="B15:C15"/>
+  </mergeCells>
+  <printOptions horizontalCentered="1"/>
+  <pageMargins left="0.78749999999999998" right="0.78749999999999998" top="0.78749999999999998" bottom="0.78749999999999998" header="0" footer="9.8611111111111122E-2"/>
+  <pageSetup fitToHeight="0" orientation="portrait" useFirstPageNumber="1" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
+  <headerFooter alignWithMargins="0">
+    <oddFooter>&amp;CSeite &amp;P</oddFooter>
+  </headerFooter>
+  <drawing r:id="rId2"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="B2:F24"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView topLeftCell="A4" workbookViewId="0">
       <selection activeCell="C1" sqref="C1"/>
     </sheetView>
   </sheetViews>
@@ -1789,233 +3516,233 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B2" s="60" t="s">
+      <c r="B2" s="72" t="s">
         <v>51</v>
       </c>
-      <c r="C2" s="61"/>
-      <c r="D2" s="61"/>
-      <c r="E2" s="61"/>
-      <c r="F2" s="62"/>
+      <c r="C2" s="73"/>
+      <c r="D2" s="73"/>
+      <c r="E2" s="73"/>
+      <c r="F2" s="74"/>
     </row>
     <row r="3" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B3" s="63"/>
-      <c r="C3" s="64"/>
-      <c r="D3" s="64"/>
-      <c r="E3" s="64"/>
-      <c r="F3" s="65"/>
+      <c r="B3" s="75"/>
+      <c r="C3" s="76"/>
+      <c r="D3" s="76"/>
+      <c r="E3" s="76"/>
+      <c r="F3" s="77"/>
     </row>
     <row r="4" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B4" s="66"/>
-      <c r="C4" s="66"/>
-      <c r="D4" s="67"/>
-      <c r="E4" s="68"/>
-      <c r="F4" s="69"/>
+      <c r="B4" s="36"/>
+      <c r="C4" s="36"/>
+      <c r="D4" s="37"/>
+      <c r="E4" s="38"/>
+      <c r="F4" s="39"/>
     </row>
     <row r="5" spans="2:6" ht="22.5" x14ac:dyDescent="0.25">
-      <c r="B5" s="70" t="s">
+      <c r="B5" s="40" t="s">
         <v>52</v>
       </c>
-      <c r="C5" s="70" t="s">
+      <c r="C5" s="40" t="s">
         <v>50</v>
       </c>
-      <c r="D5" s="70" t="s">
+      <c r="D5" s="40" t="s">
         <v>53</v>
       </c>
-      <c r="E5" s="70" t="s">
+      <c r="E5" s="40" t="s">
         <v>54</v>
       </c>
-      <c r="F5" s="70" t="s">
+      <c r="F5" s="40" t="s">
         <v>55</v>
       </c>
     </row>
     <row r="6" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B6" s="71">
+      <c r="B6" s="41">
         <v>1</v>
       </c>
-      <c r="C6" s="71" t="s">
+      <c r="C6" s="41" t="s">
         <v>56</v>
       </c>
-      <c r="D6" s="71" t="s">
+      <c r="D6" s="41" t="s">
         <v>57</v>
       </c>
-      <c r="E6" s="72" t="s">
+      <c r="E6" s="42" t="s">
         <v>58</v>
       </c>
-      <c r="F6" s="73"/>
+      <c r="F6" s="43"/>
     </row>
     <row r="7" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B7" s="71">
+      <c r="B7" s="41">
         <v>2</v>
       </c>
-      <c r="C7" s="71" t="s">
+      <c r="C7" s="41" t="s">
         <v>59</v>
       </c>
-      <c r="D7" s="71" t="s">
+      <c r="D7" s="41" t="s">
         <v>60</v>
       </c>
-      <c r="E7" s="72" t="s">
+      <c r="E7" s="42" t="s">
         <v>58</v>
       </c>
-      <c r="F7" s="73"/>
+      <c r="F7" s="43"/>
     </row>
     <row r="8" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B8" s="71">
+      <c r="B8" s="41">
         <v>3</v>
       </c>
-      <c r="C8" s="71" t="s">
+      <c r="C8" s="41" t="s">
         <v>59</v>
       </c>
-      <c r="D8" s="71" t="s">
+      <c r="D8" s="41" t="s">
         <v>61</v>
       </c>
-      <c r="E8" s="72" t="s">
+      <c r="E8" s="42" t="s">
         <v>58</v>
       </c>
-      <c r="F8" s="73"/>
+      <c r="F8" s="43"/>
     </row>
     <row r="9" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B9" s="71">
+      <c r="B9" s="41">
         <v>4</v>
       </c>
-      <c r="C9" s="71" t="s">
+      <c r="C9" s="41" t="s">
         <v>59</v>
       </c>
-      <c r="D9" s="71" t="s">
+      <c r="D9" s="41" t="s">
         <v>62</v>
       </c>
-      <c r="E9" s="72" t="s">
+      <c r="E9" s="42" t="s">
         <v>58</v>
       </c>
-      <c r="F9" s="73"/>
+      <c r="F9" s="43"/>
     </row>
     <row r="10" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B10" s="71">
+      <c r="B10" s="41">
         <v>5</v>
       </c>
-      <c r="C10" s="71" t="s">
+      <c r="C10" s="41" t="s">
         <v>63</v>
       </c>
-      <c r="D10" s="71" t="s">
+      <c r="D10" s="41" t="s">
         <v>64</v>
       </c>
-      <c r="E10" s="72" t="s">
+      <c r="E10" s="42" t="s">
         <v>58</v>
       </c>
-      <c r="F10" s="73"/>
+      <c r="F10" s="43"/>
     </row>
     <row r="11" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B11" s="71">
+      <c r="B11" s="41">
         <v>6</v>
       </c>
-      <c r="C11" s="71" t="s">
+      <c r="C11" s="41" t="s">
         <v>63</v>
       </c>
-      <c r="D11" s="71" t="s">
+      <c r="D11" s="41" t="s">
         <v>65</v>
       </c>
-      <c r="E11" s="72" t="s">
+      <c r="E11" s="42" t="s">
         <v>58</v>
       </c>
-      <c r="F11" s="73"/>
+      <c r="F11" s="43"/>
     </row>
     <row r="12" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B12" s="71">
+      <c r="B12" s="41">
         <v>7</v>
       </c>
-      <c r="C12" s="71" t="s">
+      <c r="C12" s="41" t="s">
         <v>66</v>
       </c>
-      <c r="D12" s="71" t="s">
+      <c r="D12" s="41" t="s">
         <v>67</v>
       </c>
-      <c r="E12" s="72" t="s">
+      <c r="E12" s="42" t="s">
         <v>58</v>
       </c>
-      <c r="F12" s="73"/>
+      <c r="F12" s="43"/>
     </row>
     <row r="13" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B13" s="71">
+      <c r="B13" s="41">
         <v>8</v>
       </c>
-      <c r="C13" s="71" t="s">
+      <c r="C13" s="41" t="s">
         <v>68</v>
       </c>
-      <c r="D13" s="71" t="s">
+      <c r="D13" s="41" t="s">
         <v>69</v>
       </c>
-      <c r="E13" s="72" t="s">
+      <c r="E13" s="42" t="s">
         <v>58</v>
       </c>
-      <c r="F13" s="73"/>
+      <c r="F13" s="43"/>
     </row>
     <row r="14" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B14" s="71"/>
-      <c r="C14" s="71"/>
-      <c r="D14" s="71"/>
-      <c r="E14" s="72"/>
-      <c r="F14" s="73"/>
+      <c r="B14" s="41"/>
+      <c r="C14" s="41"/>
+      <c r="D14" s="41"/>
+      <c r="E14" s="42"/>
+      <c r="F14" s="43"/>
     </row>
     <row r="15" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B15" s="71"/>
-      <c r="C15" s="71"/>
-      <c r="D15" s="71"/>
-      <c r="E15" s="72"/>
-      <c r="F15" s="73"/>
+      <c r="B15" s="41"/>
+      <c r="C15" s="41"/>
+      <c r="D15" s="41"/>
+      <c r="E15" s="42"/>
+      <c r="F15" s="43"/>
     </row>
     <row r="16" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B16" s="71"/>
-      <c r="C16" s="71"/>
-      <c r="D16" s="71"/>
-      <c r="E16" s="72"/>
-      <c r="F16" s="73"/>
+      <c r="B16" s="41"/>
+      <c r="C16" s="41"/>
+      <c r="D16" s="41"/>
+      <c r="E16" s="42"/>
+      <c r="F16" s="43"/>
     </row>
     <row r="17" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B17" s="71"/>
-      <c r="C17" s="71"/>
-      <c r="D17" s="71"/>
-      <c r="E17" s="72"/>
-      <c r="F17" s="73"/>
+      <c r="B17" s="41"/>
+      <c r="C17" s="41"/>
+      <c r="D17" s="41"/>
+      <c r="E17" s="42"/>
+      <c r="F17" s="43"/>
     </row>
     <row r="18" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B18" s="71"/>
-      <c r="C18" s="71"/>
-      <c r="D18" s="71"/>
-      <c r="E18" s="72"/>
-      <c r="F18" s="73"/>
+      <c r="B18" s="41"/>
+      <c r="C18" s="41"/>
+      <c r="D18" s="41"/>
+      <c r="E18" s="42"/>
+      <c r="F18" s="43"/>
     </row>
     <row r="19" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B19" s="71"/>
-      <c r="C19" s="71"/>
-      <c r="D19" s="71"/>
-      <c r="E19" s="72"/>
-      <c r="F19" s="73"/>
+      <c r="B19" s="41"/>
+      <c r="C19" s="41"/>
+      <c r="D19" s="41"/>
+      <c r="E19" s="42"/>
+      <c r="F19" s="43"/>
     </row>
     <row r="20" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B20" s="71"/>
-      <c r="C20" s="71"/>
-      <c r="D20" s="71"/>
-      <c r="E20" s="72"/>
-      <c r="F20" s="73"/>
+      <c r="B20" s="41"/>
+      <c r="C20" s="41"/>
+      <c r="D20" s="41"/>
+      <c r="E20" s="42"/>
+      <c r="F20" s="43"/>
     </row>
     <row r="21" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B21" s="74"/>
-      <c r="C21" s="69"/>
-      <c r="D21" s="68"/>
-      <c r="E21" s="68"/>
-      <c r="F21" s="69"/>
+      <c r="B21" s="44"/>
+      <c r="C21" s="39"/>
+      <c r="D21" s="38"/>
+      <c r="E21" s="38"/>
+      <c r="F21" s="39"/>
     </row>
     <row r="22" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B22" s="75"/>
-      <c r="C22" s="76"/>
-      <c r="D22" s="76"/>
-      <c r="E22" s="76"/>
-      <c r="F22" s="77"/>
+      <c r="B22" s="45"/>
+      <c r="C22" s="78"/>
+      <c r="D22" s="78"/>
+      <c r="E22" s="78"/>
+      <c r="F22" s="46"/>
     </row>
     <row r="23" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B23" s="78" t="s">
+      <c r="B23" s="79" t="s">
         <v>70</v>
       </c>
-      <c r="C23" s="79" t="s">
+      <c r="C23" s="47" t="s">
         <v>71</v>
       </c>
       <c r="D23" s="80"/>
@@ -2023,8 +3750,8 @@
       <c r="F23" s="80"/>
     </row>
     <row r="24" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B24" s="78"/>
-      <c r="C24" s="79" t="s">
+      <c r="B24" s="79"/>
+      <c r="C24" s="47" t="s">
         <v>72</v>
       </c>
       <c r="D24" s="80"/>
